--- a/PartnerData/excel/사과대 제휴업체 .xlsx
+++ b/PartnerData/excel/사과대 제휴업체 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34FB702-CE39-984F-A053-CA008DFFB3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C4EDE-99EA-EA4D-B269-C81A6E23BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>양파링</t>
-  </si>
-  <si>
-    <t>2Froom</t>
   </si>
   <si>
     <t>0507-1371-2815</t>
@@ -250,10 +247,15 @@
     <t>충북 청주시 서원구 1순환로674번길 22 1층</t>
   </si>
   <si>
-    <t>충북 청주시 서원구 1순환로674번길 22 1층ㅌ</t>
-  </si>
-  <si>
     <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 청주시 서원구 1순환로674번길 22 1층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2From</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="254" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="254" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -652,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -669,7 +671,7 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -686,7 +688,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -703,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -720,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -737,7 +739,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -754,7 +756,7 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -771,7 +773,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -788,7 +790,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -805,7 +807,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -816,13 +818,13 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -833,13 +835,13 @@
         <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -850,13 +852,13 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -867,13 +869,13 @@
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -884,13 +886,13 @@
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -901,13 +903,13 @@
         <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -918,29 +920,29 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
     </row>

--- a/PartnerData/excel/사과대 제휴업체 .xlsx
+++ b/PartnerData/excel/사과대 제휴업체 .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jahyeon_gu/Partnermap/PartnerData/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2C4EDE-99EA-EA4D-B269-C81A6E23BED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9CF38A-A79C-F34B-A388-ED1DB1F8FE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,6 +273,7 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -280,6 +281,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="나눔고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -287,6 +289,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="나눔고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
     <font>
@@ -628,7 +631,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="254" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -636,7 +639,7 @@
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
